--- a/002 Javascript, Jquery and React - UI Guidelines.xlsx
+++ b/002 Javascript, Jquery and React - UI Guidelines.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradhi\Desktop\Desktop1\IIHT\2018 FSD SOW\Assignments\Prafful\002 UX Assignment - Java FSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ws\iihtibm-react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E839C9E7-864F-45A7-A1CD-16AC6A017ED8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F4B763-1F6E-4400-90F9-8CCBC5271059}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{CDD88839-9D49-488E-BB39-C9224342197E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CDD88839-9D49-488E-BB39-C9224342197E}"/>
   </bookViews>
   <sheets>
     <sheet name="Video Player" sheetId="1" r:id="rId1"/>
     <sheet name="Evaluation Check" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
   <si>
     <t>The value for number of likes and un-likes should be saved in local storage and retrieved from the same.</t>
   </si>
@@ -82,12 +83,6 @@
   </si>
   <si>
     <t>New Feature other than documented</t>
-  </si>
-  <si>
-    <t>Specify the feature here</t>
-  </si>
-  <si>
-    <t>Done/Not Done</t>
   </si>
   <si>
     <t>When page loads for the first time, the video must not start playing by default</t>
@@ -339,6 +334,30 @@
   </si>
   <si>
     <t>21st Century Hackers - Documentary 2018</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>React bootstrap is used in the UI</t>
+  </si>
+  <si>
+    <t>Uses modal pop to delete a video</t>
+  </si>
+  <si>
+    <t>Uses modal pop to Edit the required fields</t>
+  </si>
+  <si>
+    <t>Uses react router to navigate thru pages</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>Not able to figure out with ReactPlayer. Good for the next iteration.</t>
   </si>
 </sst>
 </file>
@@ -4409,26 +4428,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CADF1-9B72-41CD-82B6-2BF974F9B821}">
   <dimension ref="A2:U188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="13" max="13" width="5.54296875" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" customWidth="1"/>
+    <col min="30" max="30" width="4.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4441,10 +4460,10 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
       <c r="D7" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -4456,7 +4475,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
       <c r="D8" s="32"/>
       <c r="E8" s="33"/>
@@ -4469,7 +4488,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
@@ -4482,7 +4501,7 @@
       <c r="L9" s="34"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
@@ -4495,7 +4514,7 @@
       <c r="L10" s="34"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
@@ -4508,7 +4527,7 @@
       <c r="L11" s="34"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
@@ -4521,7 +4540,7 @@
       <c r="L12" s="34"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
@@ -4534,7 +4553,7 @@
       <c r="L13" s="34"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
@@ -4547,7 +4566,7 @@
       <c r="L14" s="34"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
@@ -4560,7 +4579,7 @@
       <c r="L15" s="34"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
@@ -4573,7 +4592,7 @@
       <c r="L16" s="34"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
@@ -4586,7 +4605,7 @@
       <c r="L17" s="34"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C18" s="1"/>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
@@ -4599,7 +4618,7 @@
       <c r="L18" s="34"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
@@ -4612,7 +4631,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
@@ -4625,7 +4644,7 @@
       <c r="L20" s="34"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
@@ -4638,7 +4657,7 @@
       <c r="L21" s="34"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
@@ -4651,7 +4670,7 @@
       <c r="L22" s="37"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4664,10 +4683,10 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
       <c r="D24" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
@@ -4679,7 +4698,7 @@
       <c r="L24" s="38"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -4692,7 +4711,7 @@
       <c r="L25" s="38"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4705,10 +4724,10 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" s="1"/>
       <c r="D27" s="38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
@@ -4720,7 +4739,7 @@
       <c r="L27" s="38"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -4733,7 +4752,7 @@
       <c r="L28" s="38"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
@@ -4746,7 +4765,7 @@
       <c r="L29" s="38"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C30" s="1"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -4759,7 +4778,7 @@
       <c r="L30" s="38"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C31" s="1"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
@@ -4772,7 +4791,7 @@
       <c r="L31" s="38"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -4785,7 +4804,7 @@
       <c r="L32" s="38"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C33" s="1"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
@@ -4798,7 +4817,7 @@
       <c r="L33" s="38"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -4811,7 +4830,7 @@
       <c r="L34" s="38"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -4824,7 +4843,7 @@
       <c r="L35" s="38"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C36" s="1"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
@@ -4837,7 +4856,7 @@
       <c r="L36" s="38"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C37" s="1"/>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
@@ -4850,7 +4869,7 @@
       <c r="L37" s="38"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C38" s="1"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
@@ -4863,7 +4882,7 @@
       <c r="L38" s="38"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4876,12 +4895,12 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="42" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="21" x14ac:dyDescent="0.5">
       <c r="A42" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -4899,7 +4918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="21" x14ac:dyDescent="0.5">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -4916,181 +4935,181 @@
       <c r="N43" s="16"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>1.1000000000000001</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>1.2</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>1.3</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R47">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>2.1</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R50">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>3.1</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C54" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C55" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C56" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C57" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C58" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C59" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C60" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C61" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>3.2</v>
       </c>
       <c r="C62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C63" s="17" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -5099,9 +5118,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C64" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
@@ -5110,9 +5129,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C65" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -5121,20 +5140,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C66" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C67" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -5143,9 +5162,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C68" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -5154,9 +5173,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C69" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -5165,9 +5184,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C70" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
@@ -5176,9 +5195,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C71" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -5187,9 +5206,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C72" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -5198,23 +5217,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C73" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -5227,7 +5246,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C77" s="1"/>
       <c r="D77" s="39"/>
       <c r="E77" s="40"/>
@@ -5240,7 +5259,7 @@
       <c r="L77" s="41"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C78" s="1"/>
       <c r="D78" s="42"/>
       <c r="E78" s="43"/>
@@ -5253,7 +5272,7 @@
       <c r="L78" s="44"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C79" s="1"/>
       <c r="D79" s="42"/>
       <c r="E79" s="43"/>
@@ -5266,7 +5285,7 @@
       <c r="L79" s="44"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C80" s="1"/>
       <c r="D80" s="42"/>
       <c r="E80" s="43"/>
@@ -5279,7 +5298,7 @@
       <c r="L80" s="44"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C81" s="1"/>
       <c r="D81" s="42"/>
       <c r="E81" s="43"/>
@@ -5292,7 +5311,7 @@
       <c r="L81" s="44"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C82" s="1"/>
       <c r="D82" s="42"/>
       <c r="E82" s="43"/>
@@ -5305,7 +5324,7 @@
       <c r="L82" s="44"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C83" s="1"/>
       <c r="D83" s="42"/>
       <c r="E83" s="43"/>
@@ -5318,7 +5337,7 @@
       <c r="L83" s="44"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C84" s="1"/>
       <c r="D84" s="42"/>
       <c r="E84" s="43"/>
@@ -5331,7 +5350,7 @@
       <c r="L84" s="44"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C85" s="1"/>
       <c r="D85" s="42"/>
       <c r="E85" s="43"/>
@@ -5344,7 +5363,7 @@
       <c r="L85" s="44"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C86" s="1"/>
       <c r="D86" s="42"/>
       <c r="E86" s="43"/>
@@ -5357,7 +5376,7 @@
       <c r="L86" s="44"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C87" s="1"/>
       <c r="D87" s="42"/>
       <c r="E87" s="43"/>
@@ -5370,7 +5389,7 @@
       <c r="L87" s="44"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C88" s="1"/>
       <c r="D88" s="42"/>
       <c r="E88" s="43"/>
@@ -5383,7 +5402,7 @@
       <c r="L88" s="44"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C89" s="1"/>
       <c r="D89" s="42"/>
       <c r="E89" s="43"/>
@@ -5396,7 +5415,7 @@
       <c r="L89" s="44"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C90" s="1"/>
       <c r="D90" s="42"/>
       <c r="E90" s="43"/>
@@ -5409,7 +5428,7 @@
       <c r="L90" s="44"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C91" s="1"/>
       <c r="D91" s="42"/>
       <c r="E91" s="43"/>
@@ -5422,7 +5441,7 @@
       <c r="L91" s="44"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C92" s="1"/>
       <c r="D92" s="45"/>
       <c r="E92" s="46"/>
@@ -5435,7 +5454,7 @@
       <c r="L92" s="47"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -5448,7 +5467,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -5461,7 +5480,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -5474,7 +5493,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C96" s="1"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5487,7 +5506,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -5500,15 +5519,15 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>4.0999999999999996</v>
       </c>
@@ -5521,7 +5540,7 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>4.2</v>
       </c>
@@ -5534,12 +5553,12 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>4.3</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R105">
         <v>1</v>
@@ -5547,11 +5566,11 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5572,7 +5591,7 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C108" s="1"/>
       <c r="D108" s="7"/>
       <c r="E108" s="8"/>
@@ -5593,7 +5612,7 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C109" s="1"/>
       <c r="D109" s="10"/>
       <c r="E109" s="5"/>
@@ -5614,7 +5633,7 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C110" s="1"/>
       <c r="D110" s="10"/>
       <c r="E110" s="5"/>
@@ -5635,7 +5654,7 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C111" s="1"/>
       <c r="D111" s="10"/>
       <c r="E111" s="5"/>
@@ -5656,7 +5675,7 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C112" s="1"/>
       <c r="D112" s="10"/>
       <c r="E112" s="5"/>
@@ -5677,7 +5696,7 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C113" s="1"/>
       <c r="D113" s="10"/>
       <c r="E113" s="5"/>
@@ -5698,7 +5717,7 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C114" s="1"/>
       <c r="D114" s="10"/>
       <c r="E114" s="5"/>
@@ -5719,7 +5738,7 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C115" s="1"/>
       <c r="D115" s="10"/>
       <c r="E115" s="5"/>
@@ -5740,7 +5759,7 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C116" s="1"/>
       <c r="D116" s="10"/>
       <c r="E116" s="5"/>
@@ -5761,7 +5780,7 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C117" s="1"/>
       <c r="D117" s="10"/>
       <c r="E117" s="5"/>
@@ -5782,7 +5801,7 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C118" s="1"/>
       <c r="D118" s="10"/>
       <c r="E118" s="5"/>
@@ -5803,7 +5822,7 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C119" s="1"/>
       <c r="D119" s="10"/>
       <c r="E119" s="5"/>
@@ -5824,7 +5843,7 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C120" s="1"/>
       <c r="D120" s="10"/>
       <c r="E120" s="5"/>
@@ -5845,7 +5864,7 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C121" s="1"/>
       <c r="D121" s="10"/>
       <c r="E121" s="5"/>
@@ -5866,7 +5885,7 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C122" s="1"/>
       <c r="D122" s="10"/>
       <c r="E122" s="5"/>
@@ -5887,7 +5906,7 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C123" s="1"/>
       <c r="D123" s="12"/>
       <c r="E123" s="13"/>
@@ -5908,7 +5927,7 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -5929,7 +5948,7 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5950,7 +5969,7 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -5971,7 +5990,7 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C127" s="1"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5992,7 +6011,7 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -6013,7 +6032,7 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -6034,7 +6053,7 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -6047,7 +6066,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -6060,7 +6079,7 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -6073,7 +6092,7 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -6086,7 +6105,7 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -6099,7 +6118,7 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -6112,7 +6131,7 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -6125,7 +6144,7 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -6138,7 +6157,7 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -6151,7 +6170,7 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -6164,7 +6183,7 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -6177,7 +6196,7 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -6190,7 +6209,7 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -6203,7 +6222,7 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -6216,7 +6235,7 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -6229,7 +6248,7 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -6242,7 +6261,7 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -6255,7 +6274,7 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -6268,7 +6287,7 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6281,7 +6300,7 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -6294,7 +6313,7 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -6307,7 +6326,7 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -6320,7 +6339,7 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -6333,7 +6352,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -6346,21 +6365,21 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D157" s="18"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>5</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B160" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C160" s="19"/>
       <c r="D160" s="20"/>
@@ -6371,10 +6390,10 @@
       <c r="I160" s="20"/>
       <c r="J160" s="21"/>
     </row>
-    <row r="161" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="162" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B162" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C162" s="19"/>
       <c r="D162" s="20"/>
@@ -6385,26 +6404,26 @@
       <c r="I162" s="20"/>
       <c r="J162" s="21"/>
     </row>
-    <row r="163" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="164" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C164" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D164" s="49"/>
     </row>
-    <row r="165" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C165" s="50"/>
       <c r="D165" s="51"/>
     </row>
-    <row r="168" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B168" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J168" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K168" s="15"/>
       <c r="L168" s="15"/>
@@ -6417,173 +6436,173 @@
       <c r="S168" s="15"/>
       <c r="T168" s="15"/>
     </row>
-    <row r="169" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B169" s="25">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J169" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q169" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S169" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U169" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="170" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="170" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B170" s="25"/>
     </row>
-    <row r="171" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B171" s="25">
         <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J171" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q171" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S171" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U171" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="172" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="172" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B172" s="25"/>
     </row>
-    <row r="173" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B173" s="25">
         <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J173" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q173" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S173" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U173" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="174" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="174" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B174" s="25"/>
     </row>
-    <row r="175" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B175" s="25">
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J175" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q175" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S175" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U175" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>5.0999999999999996</v>
       </c>
       <c r="C179" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>5.2</v>
       </c>
       <c r="C180" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>5.3</v>
       </c>
       <c r="C181" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>5.4</v>
       </c>
       <c r="C182" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>5.5</v>
       </c>
       <c r="C183" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>5.6</v>
       </c>
       <c r="C184" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>5.7</v>
       </c>
       <c r="C185" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>5.8</v>
       </c>
       <c r="C186" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>8.9</v>
       </c>
       <c r="C187" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B188" s="28">
         <v>5.0999999999999996</v>
       </c>
       <c r="C188" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6610,18 +6629,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B57575-EDC9-4C52-9F23-3DC304D1C029}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="156.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.28515625" customWidth="1"/>
+    <col min="2" max="2" width="156.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -6635,158 +6654,161 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <f t="shared" ref="A4" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <f t="shared" ref="A6:A43" si="1">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6795,10 +6817,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6807,10 +6829,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6819,34 +6841,34 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6855,10 +6877,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6867,22 +6889,22 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6891,10 +6913,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6903,10 +6925,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6915,22 +6937,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6939,10 +6961,10 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -6951,34 +6973,37 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -6987,138 +7012,141 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <f>A31+1</f>
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7127,10 +7155,10 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/002 Javascript, Jquery and React - UI Guidelines.xlsx
+++ b/002 Javascript, Jquery and React - UI Guidelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ws\iihtibm-react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F4B763-1F6E-4400-90F9-8CCBC5271059}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5AEAB7-C400-4819-8E6D-A401C2DF8CEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CDD88839-9D49-488E-BB39-C9224342197E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
   <si>
     <t>The value for number of likes and un-likes should be saved in local storage and retrieved from the same.</t>
   </si>
@@ -339,9 +339,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>React bootstrap is used in the UI</t>
   </si>
   <si>
@@ -354,10 +351,10 @@
     <t>Uses react router to navigate thru pages</t>
   </si>
   <si>
-    <t>Not Done</t>
-  </si>
-  <si>
-    <t>Not able to figure out with ReactPlayer. Good for the next iteration.</t>
+    <t>Added Page Not found</t>
+  </si>
+  <si>
+    <t>Uses ReactPlayer for playing videos</t>
   </si>
 </sst>
 </file>
@@ -6627,10 +6624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B57575-EDC9-4C52-9F23-3DC304D1C029}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6766,10 +6763,7 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -6988,7 +6982,7 @@
         <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -7012,7 +7006,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -7080,7 +7074,7 @@
         <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -7095,7 +7089,7 @@
         <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -7158,7 +7152,17 @@
         <v>93</v>
       </c>
       <c r="D43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/002 Javascript, Jquery and React - UI Guidelines.xlsx
+++ b/002 Javascript, Jquery and React - UI Guidelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ws\iihtibm-react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5AEAB7-C400-4819-8E6D-A401C2DF8CEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2249DC40-6277-4635-AEC2-98B4ED1C7CA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CDD88839-9D49-488E-BB39-C9224342197E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t>The value for number of likes and un-likes should be saved in local storage and retrieved from the same.</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Uses ReactPlayer for playing videos</t>
+  </si>
+  <si>
+    <t>Add toaster functionality when some delete and edit a video</t>
   </si>
 </sst>
 </file>
@@ -6624,10 +6627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B57575-EDC9-4C52-9F23-3DC304D1C029}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7165,6 +7168,11 @@
         <v>99</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
